--- a/docker.xlsx
+++ b/docker.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/source/chapters/docker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F7D55F4-EF0D-8B48-8A63-F7B8CEF20F25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22360" yWindow="4120" windowWidth="15240" windowHeight="11900" tabRatio="500"/>
+    <workbookView xWindow="22360" yWindow="4120" windowWidth="15240" windowHeight="11900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.7" sheetId="1" r:id="rId1"/>
+    <sheet name="v2.7.2" sheetId="2" r:id="rId1"/>
+    <sheet name="v2.7" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Demo</t>
   </si>
@@ -101,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -142,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,7 +414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ACACB2-752A-2046-835B-7B575A9634B7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -687,4 +692,285 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <f>NOT(B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C21" si="0">NOT(B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docker.xlsx
+++ b/docker.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piepi/CellOrganizer/cellorganizer-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F7D55F4-EF0D-8B48-8A63-F7B8CEF20F25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22360" yWindow="4120" windowWidth="15240" windowHeight="11900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6940" yWindow="4120" windowWidth="24880" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="v2.7.2" sheetId="2" r:id="rId1"/>
     <sheet name="v2.7" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Demo</t>
   </si>
@@ -98,16 +97,44 @@
   </si>
   <si>
     <t>demo3D21</t>
+  </si>
+  <si>
+    <t>demo3D19</t>
+  </si>
+  <si>
+    <t>demo3D35</t>
+  </si>
+  <si>
+    <t>demo3D47</t>
+  </si>
+  <si>
+    <t>demo3D51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,13 +157,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,11 +445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ACACB2-752A-2046-835B-7B575A9634B7}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C21" si="0">NOT(B3)</f>
+        <f t="shared" ref="C3:C22" si="0">NOT(B3)</f>
         <v>0</v>
       </c>
     </row>
@@ -661,31 +692,82 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <f t="shared" si="0"/>
+        <f>NOT(B19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <f t="shared" si="0"/>
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" t="b">
-        <f t="shared" si="0"/>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -695,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/docker.xlsx
+++ b/docker.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F7D55F4-EF0D-8B48-8A63-F7B8CEF20F25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22360" yWindow="4120" windowWidth="15240" windowHeight="11900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.7.2" sheetId="2" r:id="rId1"/>
-    <sheet name="v2.7" sheetId="1" r:id="rId2"/>
+    <sheet name="v2.8.0" sheetId="3" r:id="rId1"/>
+    <sheet name="v2.7.2" sheetId="2" r:id="rId2"/>
+    <sheet name="v2.7" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Demo</t>
   </si>
@@ -103,13 +98,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -230,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -407,23 +403,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ACACB2-752A-2046-835B-7B575A9634B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -447,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -459,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -472,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -485,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -498,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -511,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -524,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -537,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -550,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -563,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -576,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -589,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -602,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -615,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -628,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -641,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -653,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -665,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -677,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -691,20 +687,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -728,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -740,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -753,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -766,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -779,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -792,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -805,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -818,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -831,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -844,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -857,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -870,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -883,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -896,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -909,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -922,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -934,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -946,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -958,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -972,5 +973,296 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <f>NOT(B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C21" si="0">NOT(B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docker.xlsx
+++ b/docker.xlsx
@@ -1,34 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piepi/CellOrganizer/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="4120" windowWidth="24880" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.7.2" sheetId="2" r:id="rId1"/>
-    <sheet name="v2.7" sheetId="1" r:id="rId2"/>
+    <sheet name="v2.8.0" sheetId="3" r:id="rId1"/>
+    <sheet name="v2.7.2" sheetId="2" r:id="rId2"/>
+    <sheet name="v2.7" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Demo</t>
   </si>
@@ -97,46 +93,19 @@
   </si>
   <si>
     <t>demo3D21</t>
-  </si>
-  <si>
-    <t>demo3D19</t>
-  </si>
-  <si>
-    <t>demo3D35</t>
-  </si>
-  <si>
-    <t>demo3D47</t>
-  </si>
-  <si>
-    <t>demo3D51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,17 +126,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -226,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -261,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -438,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -478,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -486,11 +451,11 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C22" si="0">NOT(B3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C3:C21" si="0">NOT(B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -503,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -516,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -529,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -542,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -555,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -568,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -581,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -594,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -607,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -620,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -633,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -646,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -659,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -672,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -684,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -692,87 +657,41 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <f>NOT(B19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C23" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="b">
-        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -784,9 +703,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -810,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -822,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -835,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -848,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -861,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -874,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -887,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -900,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -913,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -926,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -939,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -952,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -965,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -978,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -991,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1028,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1054,5 +973,296 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <f>NOT(B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C21" si="0">NOT(B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>